--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H2">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I2">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J2">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.240312</v>
+        <v>59.97191866666666</v>
       </c>
       <c r="N2">
-        <v>294.720936</v>
+        <v>179.915756</v>
       </c>
       <c r="O2">
-        <v>0.1797396894550059</v>
+        <v>0.1189776078066642</v>
       </c>
       <c r="P2">
-        <v>0.179739689455006</v>
+        <v>0.1189776078066642</v>
       </c>
       <c r="Q2">
-        <v>5.177853884272</v>
+        <v>40.43892482245644</v>
       </c>
       <c r="R2">
-        <v>46.600684958448</v>
+        <v>363.9503234021079</v>
       </c>
       <c r="S2">
-        <v>0.006639816267141024</v>
+        <v>0.04711861615956309</v>
       </c>
       <c r="T2">
-        <v>0.006639816267141024</v>
+        <v>0.04711861615956309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H3">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I3">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J3">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>369.672753</v>
       </c>
       <c r="O3">
-        <v>0.2254501045158092</v>
+        <v>0.2444631910017033</v>
       </c>
       <c r="P3">
-        <v>0.2254501045158092</v>
+        <v>0.2444631910017033</v>
       </c>
       <c r="Q3">
-        <v>6.494657373206</v>
+        <v>83.08982492604765</v>
       </c>
       <c r="R3">
-        <v>58.45191635885401</v>
+        <v>747.808424334429</v>
       </c>
       <c r="S3">
-        <v>0.008328418035725177</v>
+        <v>0.09681458111570826</v>
       </c>
       <c r="T3">
-        <v>0.008328418035725179</v>
+        <v>0.09681458111570826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H4">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I4">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J4">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.63218566666666</v>
+        <v>55.54748266666667</v>
       </c>
       <c r="N4">
-        <v>151.896557</v>
+        <v>166.642448</v>
       </c>
       <c r="O4">
-        <v>0.09263624211774561</v>
+        <v>0.1102000195140577</v>
       </c>
       <c r="P4">
-        <v>0.09263624211774563</v>
+        <v>0.1102000195140576</v>
       </c>
       <c r="Q4">
-        <v>2.668619977747333</v>
+        <v>37.45553795134044</v>
       </c>
       <c r="R4">
-        <v>24.017579799726</v>
+        <v>337.099841562064</v>
       </c>
       <c r="S4">
-        <v>0.00342210242604317</v>
+        <v>0.04364243420238276</v>
       </c>
       <c r="T4">
-        <v>0.00342210242604317</v>
+        <v>0.04364243420238276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.052706</v>
+        <v>0.6742976666666666</v>
       </c>
       <c r="H5">
-        <v>0.158118</v>
+        <v>2.022893</v>
       </c>
       <c r="I5">
-        <v>0.03694129152706233</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="J5">
-        <v>0.03694129152706232</v>
+        <v>0.3960292783506769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>274.4731953333334</v>
+        <v>265.3168996666666</v>
       </c>
       <c r="N5">
-        <v>823.4195860000001</v>
+        <v>795.950699</v>
       </c>
       <c r="O5">
-        <v>0.5021739639114392</v>
+        <v>0.5263591816775748</v>
       </c>
       <c r="P5">
-        <v>0.5021739639114392</v>
+        <v>0.5263591816775749</v>
       </c>
       <c r="Q5">
-        <v>14.46638423323867</v>
+        <v>178.9025663724674</v>
       </c>
       <c r="R5">
-        <v>130.197458099148</v>
+        <v>1610.123097352207</v>
       </c>
       <c r="S5">
-        <v>0.01855095479815295</v>
+        <v>0.2084536468730228</v>
       </c>
       <c r="T5">
-        <v>0.01855095479815295</v>
+        <v>0.2084536468730228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H6">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I6">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J6">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.240312</v>
+        <v>59.97191866666666</v>
       </c>
       <c r="N6">
-        <v>294.720936</v>
+        <v>179.915756</v>
       </c>
       <c r="O6">
-        <v>0.1797396894550059</v>
+        <v>0.1189776078066642</v>
       </c>
       <c r="P6">
-        <v>0.179739689455006</v>
+        <v>0.1189776078066642</v>
       </c>
       <c r="Q6">
-        <v>66.24321315420532</v>
+        <v>51.72859853017733</v>
       </c>
       <c r="R6">
-        <v>596.1889183878479</v>
+        <v>465.557386771596</v>
       </c>
       <c r="S6">
-        <v>0.08494692475294213</v>
+        <v>0.06027311530454058</v>
       </c>
       <c r="T6">
-        <v>0.08494692475294215</v>
+        <v>0.06027311530454058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H7">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I7">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J7">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>369.672753</v>
       </c>
       <c r="O7">
-        <v>0.2254501045158092</v>
+        <v>0.2444631910017033</v>
       </c>
       <c r="P7">
-        <v>0.2254501045158092</v>
+        <v>0.2444631910017033</v>
       </c>
       <c r="Q7">
-        <v>83.08982492604765</v>
+        <v>106.286708027297</v>
       </c>
       <c r="R7">
-        <v>747.808424334429</v>
+        <v>956.5803722456731</v>
       </c>
       <c r="S7">
-        <v>0.1065501621924272</v>
+        <v>0.1238431194792965</v>
       </c>
       <c r="T7">
-        <v>0.1065501621924272</v>
+        <v>0.1238431194792965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H8">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I8">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J8">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.63218566666666</v>
+        <v>55.54748266666667</v>
       </c>
       <c r="N8">
-        <v>151.896557</v>
+        <v>166.642448</v>
       </c>
       <c r="O8">
-        <v>0.09263624211774561</v>
+        <v>0.1102000195140577</v>
       </c>
       <c r="P8">
-        <v>0.09263624211774563</v>
+        <v>0.1102000195140576</v>
       </c>
       <c r="Q8">
-        <v>34.14116465326677</v>
+        <v>47.91231453168534</v>
       </c>
       <c r="R8">
-        <v>307.270481879401</v>
+        <v>431.210830785168</v>
       </c>
       <c r="S8">
-        <v>0.04378089175758449</v>
+        <v>0.05582645848390793</v>
       </c>
       <c r="T8">
-        <v>0.0437808917575845</v>
+        <v>0.05582645848390792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6742976666666666</v>
+        <v>0.8625470000000001</v>
       </c>
       <c r="H9">
-        <v>2.022893</v>
+        <v>2.587641</v>
       </c>
       <c r="I9">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="J9">
-        <v>0.4726108352056924</v>
+        <v>0.5065920925430184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>274.4731953333334</v>
+        <v>265.3168996666666</v>
       </c>
       <c r="N9">
-        <v>823.4195860000001</v>
+        <v>795.950699</v>
       </c>
       <c r="O9">
-        <v>0.5021739639114392</v>
+        <v>0.5263591816775748</v>
       </c>
       <c r="P9">
-        <v>0.5021739639114392</v>
+        <v>0.5263591816775749</v>
       </c>
       <c r="Q9">
-        <v>185.0766351758109</v>
+        <v>228.8482958567843</v>
       </c>
       <c r="R9">
-        <v>1665.689716582298</v>
+        <v>2059.634662711059</v>
       </c>
       <c r="S9">
-        <v>0.2373328565027385</v>
+        <v>0.2666493992752734</v>
       </c>
       <c r="T9">
-        <v>0.2373328565027385</v>
+        <v>0.2666493992752735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H10">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I10">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J10">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.240312</v>
+        <v>59.97191866666666</v>
       </c>
       <c r="N10">
-        <v>294.720936</v>
+        <v>179.915756</v>
       </c>
       <c r="O10">
-        <v>0.1797396894550059</v>
+        <v>0.1189776078066642</v>
       </c>
       <c r="P10">
-        <v>0.179739689455006</v>
+        <v>0.1189776078066642</v>
       </c>
       <c r="Q10">
-        <v>68.74333085429333</v>
+        <v>9.943424077491555</v>
       </c>
       <c r="R10">
-        <v>618.6899776886399</v>
+        <v>89.49081669742399</v>
       </c>
       <c r="S10">
-        <v>0.08815294843492279</v>
+        <v>0.01158587634256054</v>
       </c>
       <c r="T10">
-        <v>0.08815294843492279</v>
+        <v>0.01158587634256054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H11">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I11">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J11">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>369.672753</v>
       </c>
       <c r="O11">
-        <v>0.2254501045158092</v>
+        <v>0.2444631910017033</v>
       </c>
       <c r="P11">
-        <v>0.2254501045158092</v>
+        <v>0.2444631910017033</v>
       </c>
       <c r="Q11">
-        <v>86.22575888974666</v>
+        <v>20.43074511480133</v>
       </c>
       <c r="R11">
-        <v>776.03183000772</v>
+        <v>183.876706033212</v>
       </c>
       <c r="S11">
-        <v>0.1105715242876568</v>
+        <v>0.0238054904066986</v>
       </c>
       <c r="T11">
-        <v>0.1105715242876568</v>
+        <v>0.0238054904066986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H12">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I12">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J12">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.63218566666666</v>
+        <v>55.54748266666667</v>
       </c>
       <c r="N12">
-        <v>151.896557</v>
+        <v>166.642448</v>
       </c>
       <c r="O12">
-        <v>0.09263624211774561</v>
+        <v>0.1102000195140577</v>
       </c>
       <c r="P12">
-        <v>0.09263624211774563</v>
+        <v>0.1102000195140576</v>
       </c>
       <c r="Q12">
-        <v>35.42970314629778</v>
+        <v>9.209846689443555</v>
       </c>
       <c r="R12">
-        <v>318.86732831668</v>
+        <v>82.88862020499201</v>
       </c>
       <c r="S12">
-        <v>0.04543324793411796</v>
+        <v>0.01073112682776696</v>
       </c>
       <c r="T12">
-        <v>0.04543324793411796</v>
+        <v>0.01073112682776696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6997466666666666</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H13">
-        <v>2.09924</v>
+        <v>0.497404</v>
       </c>
       <c r="I13">
-        <v>0.4904478732672454</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="J13">
-        <v>0.4904478732672453</v>
+        <v>0.09737862910630474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>274.4731953333334</v>
+        <v>265.3168996666666</v>
       </c>
       <c r="N13">
-        <v>823.4195860000001</v>
+        <v>795.950699</v>
       </c>
       <c r="O13">
-        <v>0.5021739639114392</v>
+        <v>0.5263591816775748</v>
       </c>
       <c r="P13">
-        <v>0.5021739639114392</v>
+        <v>0.5263591816775749</v>
       </c>
       <c r="Q13">
-        <v>192.0617035238489</v>
+        <v>43.98989572059955</v>
       </c>
       <c r="R13">
-        <v>1728.55533171464</v>
+        <v>395.909061485396</v>
       </c>
       <c r="S13">
-        <v>0.2462901526105478</v>
+        <v>0.05125613552927863</v>
       </c>
       <c r="T13">
-        <v>0.2462901526105478</v>
+        <v>0.05125613552927864</v>
       </c>
     </row>
   </sheetData>
